--- a/main/data/longest_palindrome.xlsx
+++ b/main/data/longest_palindrome.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.15995979309082</v>
+        <v>16.98875427246094</v>
       </c>
       <c r="D2" t="n">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.68605613708496</v>
+        <v>15.77210426330566</v>
       </c>
       <c r="D3" t="n">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.82085609436035</v>
+        <v>15.27690887451172</v>
       </c>
       <c r="D4" t="n">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.10705184936523</v>
+        <v>15.2897834777832</v>
       </c>
       <c r="D5" t="n">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.40300178527832</v>
+        <v>15.15483856201172</v>
       </c>
       <c r="D6" t="n">
-        <v>334</v>
+        <v>181</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/longest_palindrome.xlsx
+++ b/main/data/longest_palindrome.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.98875427246094</v>
+        <v>16.44110679626465</v>
       </c>
       <c r="D2" t="n">
         <v>177</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.77210426330566</v>
+        <v>16.0670280456543</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.27690887451172</v>
+        <v>16.10803604125977</v>
       </c>
       <c r="D4" t="n">
         <v>175</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.2897834777832</v>
+        <v>16.05081558227539</v>
       </c>
       <c r="D5" t="n">
         <v>179</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.15483856201172</v>
+        <v>15.72895050048828</v>
       </c>
       <c r="D6" t="n">
         <v>181</v>

--- a/main/data/longest_palindrome.xlsx
+++ b/main/data/longest_palindrome.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.44110679626465</v>
+        <v>18.47100257873535</v>
       </c>
       <c r="D2" t="n">
         <v>177</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.0670280456543</v>
+        <v>17.07315444946289</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.10803604125977</v>
+        <v>16.80684089660645</v>
       </c>
       <c r="D4" t="n">
         <v>175</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.05081558227539</v>
+        <v>16.8759822845459</v>
       </c>
       <c r="D5" t="n">
         <v>179</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.72895050048828</v>
+        <v>17.03095436096191</v>
       </c>
       <c r="D6" t="n">
         <v>181</v>
